--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9161647-D6C7-4DF3-9CF1-A9A02BD9615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E322682-EBDA-495E-BD8C-BF9BCC6CE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,28 +330,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸
-990: 催收款項</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FacAcctCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>額度業務科目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -379,11 +362,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">空白、1.展期一般 2.展期協議
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -460,67 +438,91 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>空白 Y:是,N:否
+    <t>0:正常</t>
+  </si>
+  <si>
+    <t>1:已變更</t>
+  </si>
+  <si>
+    <t>2:毀諾</t>
+  </si>
+  <si>
+    <t>3:結案</t>
+  </si>
+  <si>
+    <t>4:未生效</t>
+  </si>
+  <si>
+    <t>5:調解不成立</t>
+  </si>
+  <si>
+    <t>債權戶況</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>03: 結案戶</t>
+  </si>
+  <si>
+    <t>03: 結案戶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不轉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>00: 正常戶  or  04:逾期戶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode</t>
+  </si>
+  <si>
+    <t>地區別與鄉鎮區對照檔CdArea</t>
+  </si>
+  <si>
+    <t>擔保品地區別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:正常戶  
+02:催收戶
+03:結案戶
+04:逾期戶(逾期期數&gt;=1)
+05:催收結案戶
+06:呆帳戶 
+07:部分轉呆戶
+08:債權轉讓戶
+09:呆帳結案戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">空白、1:展期一般
+2:展期協議
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白 Y:是
+N:否
 若催收或法務人員非CdCity裡設定的人，則此欄位為Y，否則預設N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>00: 正常戶  
-02: 催收戶
-03: 結案戶
-04: 逾期戶(逾期期數&gt;=1)
-05: 催收結案戶
-06: 呆帳戶 
-07: 部分轉呆戶
-08: 債權轉讓戶
-09: 呆帳結案戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常</t>
-  </si>
-  <si>
-    <t>1:已變更</t>
-  </si>
-  <si>
-    <t>2:毀諾</t>
-  </si>
-  <si>
-    <t>3:結案</t>
-  </si>
-  <si>
-    <t>4:未生效</t>
-  </si>
-  <si>
-    <t>5:調解不成立</t>
-  </si>
-  <si>
-    <t>債權戶況</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>03: 結案戶</t>
-  </si>
-  <si>
-    <t>03: 結案戶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不轉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>00: 正常戶  or  04:逾期戶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityCode</t>
-  </si>
-  <si>
-    <t>地區別與鄉鎮區對照檔CdArea</t>
-  </si>
-  <si>
-    <t>擔保品地區別</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1218,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1267,7 +1269,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1293,7 +1295,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1493,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>35</v>
@@ -1601,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>74</v>
@@ -1613,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="36" customFormat="1" ht="67.2" customHeight="1">
@@ -1634,7 +1636,7 @@
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="35" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="36" customFormat="1" ht="67.2" customHeight="1">
@@ -1642,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>80</v>
@@ -1655,7 +1657,7 @@
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="35" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1719,13 +1721,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
@@ -1737,13 +1739,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E30" s="23">
         <v>2</v>
@@ -1755,30 +1757,30 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E31" s="23">
         <v>7</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48.6">
       <c r="A32" s="31">
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>80</v>
@@ -1786,8 +1788,8 @@
       <c r="E32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>91</v>
+      <c r="G32" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1795,28 +1797,28 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" s="23">
         <v>8</v>
       </c>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="48.6">
+    <row r="34" spans="1:7" ht="64.8">
       <c r="A34" s="31">
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>80</v>
@@ -1825,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1833,10 +1835,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>39</v>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1962,7 +1964,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -1970,18 +1972,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2029,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2053,55 +2055,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E322682-EBDA-495E-BD8C-BF9BCC6CE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C4090-5597-452C-BB60-F38CF1B1AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -473,9 +473,6 @@
   <si>
     <t>00: 正常戶  or  04:逾期戶</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityCode</t>
   </si>
   <si>
     <t>地區別與鄉鎮區對照檔CdArea</t>
@@ -524,6 +521,18 @@
 N:否
 若催收或法務人員非CdCity裡設定的人，則此欄位為Y，否則預設N</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCityCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode=</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1220,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1615,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="36" customFormat="1" ht="67.2" customHeight="1">
@@ -1636,7 +1645,7 @@
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="36" customFormat="1" ht="67.2" customHeight="1">
@@ -1657,7 +1666,7 @@
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1789,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1827,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1835,10 +1844,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>39</v>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1933,11 +1942,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1984,6 +1993,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D0A6E-8E96-4B88-8AFC-6CC80E1DE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17209BCA-B1AA-4772-A5A3-2C9D142F48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,16 @@
     <sheet name="債協戶況" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1285,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
